--- a/pred_ohlcv/54_21/2020-01-13 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 XRP ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>219932.1391000001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -600,7 +600,7 @@
         <v>456694.8138000001</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>2099576.1447</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>2315970.783799999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>2186128.544999999</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>2231542.714199999</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>2620320.626599999</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2407286.512899999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>2908432.748499999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2941950.426499999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>3074661.455199999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>3584186.622899999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>4630226.56470144</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>4155750.64379067</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>4308976.25929067</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>4359184.37139067</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>4393230.81142121</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>4342013.34762121</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>4260399.05082121</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>4260595.906421211</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>4260650.40542121</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>4260650.40542121</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>4225978.662921211</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>4184432.429921211</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>4108634.386021211</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>4132789.116121211</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>4054272.423321211</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>4020880.535321211</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>4065153.710121211</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>4059526.049421211</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>4235676.415821211</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>4251509.372521211</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>4251509.372521211</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>4279678.897121212</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>4247024.275621211</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>4240238.987321211</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>4240238.987321211</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>4235285.445521211</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>4260445.216421211</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>4166234.424105344</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>4166234.424105344</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>4152691.476105344</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>4124889.554652524</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>4050880.109052524</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>4271465.994852523</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>4271465.994852523</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>4266091.866552523</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>4265884.247152523</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>3370634.322705695</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>3370634.322705695</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>3370406.322705695</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>3332916.122505695</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>3345054.628205695</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>3347827.338805695</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>3333547.166705695</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>3334957.100605695</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>3334957.100605695</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>3295394.515205695</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>3766670.295978584</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>5091171.305331926</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 XRP ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>219932.1391000001</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -600,7 +600,7 @@
         <v>456694.8138000001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>660211.7120000001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>2099576.1447</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>2315970.783799999</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>2186128.544999999</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>2231542.714199999</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>2620320.626599999</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2407286.512899999</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>2908432.748499999</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2941950.426499999</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>3074661.455199999</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>3584186.622899999</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>5172620.330729179</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>5143771.736001439</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>4630226.56470144</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>4630226.56470144</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>4571259.32240144</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>4320137.62980144</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>4358540.95900144</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>4418352.14860144</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>4308976.25929067</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>4359184.37139067</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>4393230.81142121</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>4342013.34762121</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>4260399.05082121</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>4260595.906421211</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>4260650.40542121</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>4260650.40542121</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>4225978.662921211</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>4184432.429921211</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>4108634.386021211</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>4132789.116121211</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>4054272.423321211</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>4020880.535321211</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>4020880.535321211</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>4065153.710121211</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>4059526.049421211</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>4251509.372521211</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>3370634.322705695</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>3370634.322705695</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>3370406.322705695</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>3332916.122505695</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>3345054.628205695</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>3347827.338805695</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>3333547.166705695</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>3334957.100605695</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>3334957.100605695</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>3295394.515205695</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>3766670.295978584</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>5091171.305331926</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
